--- a/biology/Botanique/Monocarpie/Monocarpie.xlsx
+++ b/biology/Botanique/Monocarpie/Monocarpie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La monocarpie (monos-, « un seul », karpos-, « fruit » (du grec καρπός)) désigne le fait pour une plante de ne fleurir et fructifier qu'une seule fois avant de mourir, à l'inverse des plantes vivaces, les plantes polycarpiques, qui fleurissent plusieurs fois au cours de leur cycle de vie[1]. La plante peut vivre plusieurs années avant de fleurir. La mort de la plante ne résulte pas directement de la floraison mais la production de fruits et de graines cause des changements à l'intérieur de la plante qui conduisent à sa mort. Ces changements sont provoqués par des substances chimiques qui agissent comme des hormones, en redirigeant les ressources de la plante des racines et des feuilles vers la production de fruits et de graines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La monocarpie (monos-, « un seul », karpos-, « fruit » (du grec καρπός)) désigne le fait pour une plante de ne fleurir et fructifier qu'une seule fois avant de mourir, à l'inverse des plantes vivaces, les plantes polycarpiques, qui fleurissent plusieurs fois au cours de leur cycle de vie. La plante peut vivre plusieurs années avant de fleurir. La mort de la plante ne résulte pas directement de la floraison mais la production de fruits et de graines cause des changements à l'intérieur de la plante qui conduisent à sa mort. Ces changements sont provoqués par des substances chimiques qui agissent comme des hormones, en redirigeant les ressources de la plante des racines et des feuilles vers la production de fruits et de graines.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs types de plantes monocarpiques :
 Plantes annuelles (bien que nombre de plantes annuelles ne soient pas monocarpiques, car la floraison n'entraîne pas la mort de la plante)
@@ -551,7 +565,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Monocarpique : mono-, « un seul », carp(o)-, « fruit » (du grec καρπός). Antonyme : Polycarpique. Réservé aux plantes.
 Hapaxanthe, du grec ἅπαξ (une fois) et ἄνθος (fleur) [antonyme : Pollacanthe, du grec πολλάκις (souvent) et ἄνθος (fleur)]. Ce terme a été employé la première fois en botanique par Alexander Braun. Réservé aux plantes. Terme surtout utilisé par les botanistes pour la description des Arecaceae (palmiers), quelques espèces de bambous, et les taxons étudiés par des botanistes germanophones. Mais on peut utiliser un autre terme pour cette qualification; Pleonanthique (qui fleurit régulièrement).
@@ -583,19 +599,21 @@
           <t>Quelques espèces monocarpiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave americana - l'agave américain
 Cerberiopsis candelabra - le Candélabre, arbre endémique de Nouvelle-Calédonie
 Corypha umbraculifera - le palmier tallipot, un géant de la famille des Arecaceae
-Erophila verna - la drave printanière est une monocarpique annuelle[1]
+Erophila verna - la drave printanière est une monocarpique annuelle
 Puya raimondii - une broméliacée de la Cordillère des Andes
 Strobilanthes kunthiana — le kurinji, une acanthacée d'Inde qui ne fleurit que tous les 12 ans
 Tachigali versicolor - une fabacée du Costa Rica, appelé aussi « arbre suicidaire »
 Tahina spectabilis - un autre palmier géant de l’île de Madagascar appelé aussi dans les médias «Palmier suicidaire»
 Tillandsia utriculata (en) - une broméliacée d'Amérique centrale et du Sud
 la saxifrage à nombreuses fleurs, endémique du Parc National du Mercantour
-Les bambous de la famille des Poacées sont également des plantes monocarpiques vivaces[1].
+Les bambous de la famille des Poacées sont également des plantes monocarpiques vivaces.
 </t>
         </is>
       </c>
